--- a/BehaviouralCloning.xlsx
+++ b/BehaviouralCloning.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Self driving car experiments</t>
   </si>
@@ -87,6 +88,84 @@
   </si>
   <si>
     <t>Trying a deeper version of Lenet  AWS</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>EPOCS</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>Model unchanged</t>
+  </si>
+  <si>
+    <t>Considering left and right images</t>
+  </si>
+  <si>
+    <t>Measurements being updated. Left has 0.2 added, right has 0.2 subtracted</t>
+  </si>
+  <si>
+    <t>Also added flipped images of left, right and centre</t>
+  </si>
+  <si>
+    <t>38572/38572 [==============================] - 328s - loss: 13.0847 - val_loss: 0.0284</t>
+  </si>
+  <si>
+    <t>38572/38572 [==============================] - 284s - loss: 0.0139 - val_loss: 0.0278</t>
+  </si>
+  <si>
+    <t>38572/38572 [==============================] - 285s - loss: 0.0118 - val_loss: 0.0274</t>
+  </si>
+  <si>
+    <t>38572/38572 [==============================] - 283s - loss: 0.0114 - val_loss: 0.0270</t>
+  </si>
+  <si>
+    <t>Car is making better adjustment when the curve approaches, but still unable to go beyond first major curve. Also, higher validation loss seems to indicate that the network is not learning that well</t>
+  </si>
+  <si>
+    <t>Highter correction factor?</t>
+  </si>
+  <si>
+    <t>But instead of staying in the center, the car was near the right curb a lot. Maybe its because of lower left turning rate</t>
+  </si>
+  <si>
+    <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>Higher correction factor. Using 0.3 instead of 0.2</t>
+  </si>
+  <si>
+    <t>Flipped images, NVIDIA model, using only 1924 samples</t>
+  </si>
+  <si>
+    <t>2 Epochs</t>
+  </si>
+  <si>
+    <t>Train on 1924 samples, validate on 482 samples</t>
+  </si>
+  <si>
+    <t>Epoch 1/2</t>
+  </si>
+  <si>
+    <t>1924/1924 [==============================] - 109s - loss: 0.1470 - val_loss: 0.0501</t>
+  </si>
+  <si>
+    <t>Epoch 2/2</t>
+  </si>
+  <si>
+    <t>1924/1924 [==============================] - 105s - loss: 0.0217 - val_loss: 0.0185</t>
+  </si>
+  <si>
+    <t>Car is able to reach the bridge</t>
+  </si>
+  <si>
+    <t>Swerves left and right but does drive well.</t>
+  </si>
+  <si>
+    <t>Just train it for more data</t>
   </si>
 </sst>
 </file>
@@ -410,123 +489,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BehaviouralCloning.xlsx
+++ b/BehaviouralCloning.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Self driving car experiments</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Just train it for more data</t>
+  </si>
+  <si>
+    <t>Train on 19204 samples, validate on 4802 samples</t>
+  </si>
+  <si>
+    <t>19204/19204 [==============================] - 1390s - loss: 0.0335 - val_loss: 0.0208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swerving is gone, quality of driving is much better. But the car  does not make </t>
+  </si>
+  <si>
+    <t>the curve after the first curve and goes off the road. Does not reach the bridge</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,6 +710,27 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
